--- a/result4.xlsx
+++ b/result4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\opengl_binary_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{992F43DF-5212-49F1-9AE2-6AB0EF8AC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E6C71B1-7CFF-4DDE-82EA-37013995B6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC816659-1F47-451D-9204-4E64BFE60A4F}"/>
   </bookViews>
@@ -6130,16 +6130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>452718</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>51921</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408268</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>197971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>401918</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>51921</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357468</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>197971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6203,15 +6203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
+      <xdr:colOff>462803</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>100106</xdr:rowOff>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>389539</xdr:colOff>
+      <xdr:colOff>370489</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>23906</xdr:rowOff>
+      <xdr:rowOff>30256</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6847,8 +6847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482269C9-FE50-4E90-976B-1B521B627D8F}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
